--- a/大学信息技术/期末考试-复习/复习题/第2题/BExcel.xlsx
+++ b/大学信息技术/期末考试-复习/复习题/第2题/BExcel.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\0808下午\程雷\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\demo\大学信息技术\期末考试-复习\复习题\第2题\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A94F905-A94D-4152-B018-24F0B9663F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9435" yWindow="4590" windowWidth="17730" windowHeight="12000"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
   <si>
     <t>姓名</t>
   </si>
@@ -97,13 +106,25 @@
   <si>
     <t>平均分</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>成绩表</t>
+  </si>
+  <si>
+    <t>女 平均值</t>
+  </si>
+  <si>
+    <t>男 平均值</t>
+  </si>
+  <si>
+    <t>总计平均值</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +154,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -142,7 +179,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -200,13 +237,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -225,6 +271,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -237,14 +286,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -255,6 +316,1021 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN"/>
+              <a:t>学生成绩评价</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>期中</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>语文</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>数学</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>英语</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>信息</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>体育</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4B7E-49B7-9A98-A3499D4489AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>期末</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>语文</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>数学</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>英语</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>信息</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>体育</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4B7E-49B7-9A98-A3499D4489AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="353515624"/>
+        <c:axId val="353517592"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="353515624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="353517592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="353517592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="353515624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32F5DF04-329B-4123-A7B6-EC0320F77948}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -514,36 +1590,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="1" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+    </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -996,42 +2087,52 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="H16">
+        <f>AVERAGE(H4:H15)</f>
+        <v>79.083333333333329</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="B4:K15">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>60</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1056,283 +2157,328 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D3" s="3">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="E3" s="3">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F3" s="3">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G3" s="3">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="3">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D4" s="3">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E4" s="3">
         <v>93</v>
       </c>
       <c r="F4" s="3">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="G4" s="3">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="3">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D5" s="3">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E5" s="3">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F5" s="3">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G5" s="3">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="3">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="D6" s="3">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E6" s="3">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="F6" s="3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G6" s="3">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="3">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D7" s="3">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E7" s="3">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="F7" s="3">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G7" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3">
+        <v>93</v>
+      </c>
+      <c r="D8" s="3">
+        <v>85</v>
+      </c>
+      <c r="E8" s="3">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="3">
-        <v>90</v>
-      </c>
-      <c r="D8" s="3">
-        <v>73</v>
-      </c>
-      <c r="E8" s="3">
-        <v>91</v>
-      </c>
       <c r="F8" s="3">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" s="3">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="C9" s="3">
-        <v>75</v>
-      </c>
-      <c r="D9" s="3">
-        <v>63</v>
-      </c>
-      <c r="E9" s="3">
-        <v>97</v>
-      </c>
-      <c r="F9" s="3">
-        <v>62</v>
-      </c>
-      <c r="G9" s="3">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+        <f>SUBTOTAL(1,C3:C8)</f>
+        <v>80.833333333333329</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="3">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D10" s="3">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E10" s="3">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="F10" s="3">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G10" s="3">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="3">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D11" s="3">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="E11" s="3">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F11" s="3">
+        <v>89</v>
+      </c>
+      <c r="G11" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3">
+        <v>75</v>
+      </c>
+      <c r="D12" s="3">
+        <v>63</v>
+      </c>
+      <c r="E12" s="3">
+        <v>97</v>
+      </c>
+      <c r="F12" s="3">
         <v>62</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G12" s="3">
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="3">
-        <v>72</v>
-      </c>
-      <c r="D12" s="3">
-        <v>83</v>
-      </c>
-      <c r="E12" s="3">
-        <v>72</v>
-      </c>
-      <c r="F12" s="3">
-        <v>78</v>
-      </c>
-      <c r="G12" s="3">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.75" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="3">
+        <v>76</v>
+      </c>
+      <c r="D13" s="3">
+        <v>92</v>
+      </c>
+      <c r="E13" s="3">
+        <v>61</v>
+      </c>
+      <c r="F13" s="3">
+        <v>92</v>
+      </c>
+      <c r="G13" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3">
+        <v>64</v>
+      </c>
+      <c r="D14" s="3">
+        <v>92</v>
+      </c>
+      <c r="E14" s="3">
+        <v>84</v>
+      </c>
+      <c r="F14" s="3">
+        <v>62</v>
+      </c>
+      <c r="G14" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3">
         <v>83</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D15" s="3">
         <v>75</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E15" s="3">
         <v>96</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F15" s="3">
         <v>73</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G15" s="3">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="3">
-        <v>93</v>
-      </c>
-      <c r="D14" s="3">
-        <v>85</v>
-      </c>
-      <c r="E14" s="3">
-        <v>71</v>
-      </c>
-      <c r="F14" s="3">
-        <v>96</v>
-      </c>
-      <c r="G14" s="3">
-        <v>52</v>
-      </c>
+    <row r="16" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3">
+        <f>SUBTOTAL(1,C10:C15)</f>
+        <v>79.166666666666671</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3">
+        <f>SUBTOTAL(1,C3:C15)</f>
+        <v>80</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G15">
+    <sortCondition descending="1" ref="B3:B15"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
@@ -1342,11 +2488,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1414,5 +2560,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>